--- a/biology/Médecine/NLRX1/NLRX1.xlsx
+++ b/biology/Médecine/NLRX1/NLRX1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NLRX1 (pour « nucleotide-binding oligomerization domain, leucine rich repeat containing X1 » ) est une protéine appartenant à la famille des récepteurs de type NOD. Son gène est le NLRx1 situé sur le chromosome 11 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La protéine est exprimée dans la mitochondrie[5] et est un inhibiteur du MAVS (« Mitochondrial antiviral-signaling protein »), régulant la réaction antivirale[6] par une diminution de la réponse inflammatoire[7]. Elle intervient notamment dans l'inflammasome[8].
-Elle se fixe sur le complexe IKK et inhibe, par ce biais, le NF-κB, impliqué dans la réponse immunitaire[9].
-Elle interagit avec le TUFM, diminuant l'expression de l'interféron de type 1 et accroissant l'autophagie en cas d'attaque virale, ce qui est délétère[10]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La protéine est exprimée dans la mitochondrie et est un inhibiteur du MAVS (« Mitochondrial antiviral-signaling protein »), régulant la réaction antivirale par une diminution de la réponse inflammatoire. Elle intervient notamment dans l'inflammasome.
+Elle se fixe sur le complexe IKK et inhibe, par ce biais, le NF-κB, impliqué dans la réponse immunitaire.
+Elle interagit avec le TUFM, diminuant l'expression de l'interféron de type 1 et accroissant l'autophagie en cas d'attaque virale, ce qui est délétère. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son expression est diminuée en cas de bronchopneumopathie chronique obstructive, et, expérimentalement, par la fumée du tabac[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son expression est diminuée en cas de bronchopneumopathie chronique obstructive, et, expérimentalement, par la fumée du tabac.
 </t>
         </is>
       </c>
